--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H2">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I2">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J2">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.365419</v>
+        <v>1.135186</v>
       </c>
       <c r="N2">
-        <v>4.096257</v>
+        <v>3.405558</v>
       </c>
       <c r="O2">
-        <v>0.009198204086533742</v>
+        <v>0.006415563145489937</v>
       </c>
       <c r="P2">
-        <v>0.009372688028951477</v>
+        <v>0.00646579730555003</v>
       </c>
       <c r="Q2">
-        <v>21.613471318934</v>
+        <v>18.97912856976933</v>
       </c>
       <c r="R2">
-        <v>194.521241870406</v>
+        <v>170.812157127924</v>
       </c>
       <c r="S2">
-        <v>0.0001398280834689713</v>
+        <v>0.0001868304845648394</v>
       </c>
       <c r="T2">
-        <v>0.0001454824263446114</v>
+        <v>0.0001978061528087236</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H3">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I3">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J3">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>14.186264</v>
       </c>
       <c r="O3">
-        <v>0.03185546011821195</v>
+        <v>0.02672480471352731</v>
       </c>
       <c r="P3">
-        <v>0.03245973745503403</v>
+        <v>0.02693406118674866</v>
       </c>
       <c r="Q3">
-        <v>74.85233716703468</v>
+        <v>79.05985696931023</v>
       </c>
       <c r="R3">
-        <v>673.6710345033121</v>
+        <v>711.5387127237921</v>
       </c>
       <c r="S3">
-        <v>0.0004842562629016838</v>
+        <v>0.0007782649942490295</v>
       </c>
       <c r="T3">
-        <v>0.0005038385305133963</v>
+        <v>0.0008239854686277241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H4">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I4">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J4">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.80666966666666</v>
+        <v>84.55360633333333</v>
       </c>
       <c r="N4">
-        <v>188.420009</v>
+        <v>253.660819</v>
       </c>
       <c r="O4">
-        <v>0.4230998437765317</v>
+        <v>0.4778591355164685</v>
       </c>
       <c r="P4">
-        <v>0.4311257723256207</v>
+        <v>0.4816007949398642</v>
       </c>
       <c r="Q4">
-        <v>994.1784561942246</v>
+        <v>1413.648305773676</v>
       </c>
       <c r="R4">
-        <v>8947.606105748022</v>
+        <v>12722.83475196308</v>
       </c>
       <c r="S4">
-        <v>0.006431825138333928</v>
+        <v>0.01391594967076879</v>
       </c>
       <c r="T4">
-        <v>0.006691914125796677</v>
+        <v>0.01473346533070351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H5">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I5">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J5">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.290399499999999</v>
+        <v>4.124113</v>
       </c>
       <c r="N5">
-        <v>16.580799</v>
+        <v>8.248226000000001</v>
       </c>
       <c r="O5">
-        <v>0.05584863441910307</v>
+        <v>0.02330764066032874</v>
       </c>
       <c r="P5">
-        <v>0.03793869776670523</v>
+        <v>0.01566009371925767</v>
       </c>
       <c r="Q5">
-        <v>131.230275699807</v>
+        <v>68.95087753307135</v>
       </c>
       <c r="R5">
-        <v>787.3816541988419</v>
+        <v>413.705265198428</v>
       </c>
       <c r="S5">
-        <v>0.0008489926339659238</v>
+        <v>0.0006787522310794473</v>
       </c>
       <c r="T5">
-        <v>0.0005888826968748071</v>
+        <v>0.0004790844415384754</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H6">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I6">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J6">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.25284333333333</v>
+        <v>82.400874</v>
       </c>
       <c r="N6">
-        <v>213.75853</v>
+        <v>247.202622</v>
       </c>
       <c r="O6">
-        <v>0.4799978575996197</v>
+        <v>0.4656928559641855</v>
       </c>
       <c r="P6">
-        <v>0.4891031044236887</v>
+        <v>0.4693392528485795</v>
       </c>
       <c r="Q6">
-        <v>1127.874510152193</v>
+        <v>1377.656861437124</v>
       </c>
       <c r="R6">
-        <v>10150.87059136974</v>
+        <v>12398.91175293412</v>
       </c>
       <c r="S6">
-        <v>0.007296770094025986</v>
+        <v>0.01356165000095691</v>
       </c>
       <c r="T6">
-        <v>0.007591835569950179</v>
+        <v>0.01435835173620568</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J7">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.365419</v>
+        <v>1.135186</v>
       </c>
       <c r="N7">
-        <v>4.096257</v>
+        <v>3.405558</v>
       </c>
       <c r="O7">
-        <v>0.009198204086533742</v>
+        <v>0.006415563145489937</v>
       </c>
       <c r="P7">
-        <v>0.009372688028951477</v>
+        <v>0.00646579730555003</v>
       </c>
       <c r="Q7">
-        <v>212.323185647991</v>
+        <v>176.521864587354</v>
       </c>
       <c r="R7">
-        <v>1910.908670831919</v>
+        <v>1588.696781286186</v>
       </c>
       <c r="S7">
-        <v>0.001373622204739366</v>
+        <v>0.001737680704143369</v>
       </c>
       <c r="T7">
-        <v>0.00142916849225544</v>
+        <v>0.001839763653651846</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J8">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>14.186264</v>
       </c>
       <c r="O8">
-        <v>0.03185546011821195</v>
+        <v>0.02672480471352731</v>
       </c>
       <c r="P8">
-        <v>0.03245973745503403</v>
+        <v>0.02693406118674866</v>
       </c>
       <c r="Q8">
         <v>735.3231901522321</v>
@@ -948,10 +948,10 @@
         <v>6617.908711370089</v>
       </c>
       <c r="S8">
-        <v>0.004757164219113865</v>
+        <v>0.007238519272519725</v>
       </c>
       <c r="T8">
-        <v>0.004949533569699761</v>
+        <v>0.007663758153086706</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J9">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.80666966666666</v>
+        <v>84.55360633333333</v>
       </c>
       <c r="N9">
-        <v>188.420009</v>
+        <v>253.660819</v>
       </c>
       <c r="O9">
-        <v>0.4230998437765317</v>
+        <v>0.4778591355164685</v>
       </c>
       <c r="P9">
-        <v>0.4311257723256207</v>
+        <v>0.4816007949398642</v>
       </c>
       <c r="Q9">
-        <v>9766.461564961168</v>
+        <v>13148.1186761862</v>
       </c>
       <c r="R9">
-        <v>87898.15408465051</v>
+        <v>118333.0680856758</v>
       </c>
       <c r="S9">
-        <v>0.06318400143828651</v>
+        <v>0.1294300407080143</v>
       </c>
       <c r="T9">
-        <v>0.06573902471775733</v>
+        <v>0.1370336241966103</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J10">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.290399499999999</v>
+        <v>4.124113</v>
       </c>
       <c r="N10">
-        <v>16.580799</v>
+        <v>8.248226000000001</v>
       </c>
       <c r="O10">
-        <v>0.05584863441910307</v>
+        <v>0.02330764066032874</v>
       </c>
       <c r="P10">
-        <v>0.03793869776670523</v>
+        <v>0.01566009371925767</v>
       </c>
       <c r="Q10">
-        <v>1289.160347215406</v>
+        <v>641.3011757799571</v>
       </c>
       <c r="R10">
-        <v>7734.962083292433</v>
+        <v>3847.807054679743</v>
       </c>
       <c r="S10">
-        <v>0.008340206807844433</v>
+        <v>0.006312966845791635</v>
       </c>
       <c r="T10">
-        <v>0.005784977726549021</v>
+        <v>0.004455888404163475</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J11">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>71.25284333333333</v>
+        <v>82.400874</v>
       </c>
       <c r="N11">
-        <v>213.75853</v>
+        <v>247.202622</v>
       </c>
       <c r="O11">
-        <v>0.4799978575996197</v>
+        <v>0.4656928559641855</v>
       </c>
       <c r="P11">
-        <v>0.4891031044236887</v>
+        <v>0.4693392528485795</v>
       </c>
       <c r="Q11">
-        <v>11079.84485568939</v>
+        <v>12813.36796093999</v>
       </c>
       <c r="R11">
-        <v>99718.60370120451</v>
+        <v>115320.3116484599</v>
       </c>
       <c r="S11">
-        <v>0.07168091827745328</v>
+        <v>0.126134755673827</v>
       </c>
       <c r="T11">
-        <v>0.07457953835094802</v>
+        <v>0.1335447521501723</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H12">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I12">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J12">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.365419</v>
+        <v>1.135186</v>
       </c>
       <c r="N12">
-        <v>4.096257</v>
+        <v>3.405558</v>
       </c>
       <c r="O12">
-        <v>0.009198204086533742</v>
+        <v>0.006415563145489937</v>
       </c>
       <c r="P12">
-        <v>0.009372688028951477</v>
+        <v>0.00646579730555003</v>
       </c>
       <c r="Q12">
-        <v>244.5729942520076</v>
+        <v>221.1964901841933</v>
       </c>
       <c r="R12">
-        <v>2201.156948268069</v>
+        <v>1990.76841165774</v>
       </c>
       <c r="S12">
-        <v>0.001582261939782316</v>
+        <v>0.002177457584168568</v>
       </c>
       <c r="T12">
-        <v>0.001646245163356928</v>
+        <v>0.00230537595955912</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H13">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I13">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J13">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>14.186264</v>
       </c>
       <c r="O13">
-        <v>0.03185546011821195</v>
+        <v>0.02672480471352731</v>
       </c>
       <c r="P13">
-        <v>0.03245973745503403</v>
+        <v>0.02693406118674866</v>
       </c>
       <c r="Q13">
-        <v>847.0115678116543</v>
+        <v>921.4207497351023</v>
       </c>
       <c r="R13">
-        <v>7623.104110304888</v>
+        <v>8292.786747615921</v>
       </c>
       <c r="S13">
-        <v>0.005479730787131775</v>
+        <v>0.009070463089401948</v>
       </c>
       <c r="T13">
-        <v>0.005701319154560983</v>
+        <v>0.00960332256316263</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H14">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I14">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J14">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.80666966666666</v>
+        <v>84.55360633333333</v>
       </c>
       <c r="N14">
-        <v>188.420009</v>
+        <v>253.660819</v>
       </c>
       <c r="O14">
-        <v>0.4230998437765317</v>
+        <v>0.4778591355164685</v>
       </c>
       <c r="P14">
-        <v>0.4311257723256207</v>
+        <v>0.4816007949398642</v>
       </c>
       <c r="Q14">
-        <v>11249.89124904034</v>
+        <v>16475.67971535001</v>
       </c>
       <c r="R14">
-        <v>101249.0212413631</v>
+        <v>148281.1174381501</v>
       </c>
       <c r="S14">
-        <v>0.0727810313010491</v>
+        <v>0.1621865415705621</v>
       </c>
       <c r="T14">
-        <v>0.07572413754701397</v>
+        <v>0.1717144603042078</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H15">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I15">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J15">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.290399499999999</v>
+        <v>4.124113</v>
       </c>
       <c r="N15">
-        <v>16.580799</v>
+        <v>8.248226000000001</v>
       </c>
       <c r="O15">
-        <v>0.05584863441910307</v>
+        <v>0.02330764066032874</v>
       </c>
       <c r="P15">
-        <v>0.03793869776670523</v>
+        <v>0.01566009371925767</v>
       </c>
       <c r="Q15">
-        <v>1484.97115483258</v>
+        <v>803.6033925039634</v>
       </c>
       <c r="R15">
-        <v>8909.826928995482</v>
+        <v>4821.620355023781</v>
       </c>
       <c r="S15">
-        <v>0.009607002388600381</v>
+        <v>0.007910669379130984</v>
       </c>
       <c r="T15">
-        <v>0.006663659081533065</v>
+        <v>0.005583596558746169</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H16">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I16">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J16">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>71.25284333333333</v>
+        <v>82.400874</v>
       </c>
       <c r="N16">
-        <v>213.75853</v>
+        <v>247.202622</v>
       </c>
       <c r="O16">
-        <v>0.4799978575996197</v>
+        <v>0.4656928559641855</v>
       </c>
       <c r="P16">
-        <v>0.4891031044236887</v>
+        <v>0.4693392528485795</v>
       </c>
       <c r="Q16">
-        <v>12762.764574832</v>
+        <v>16056.20939379974</v>
       </c>
       <c r="R16">
-        <v>114864.881173488</v>
+        <v>144505.8845441977</v>
       </c>
       <c r="S16">
-        <v>0.082568546437105</v>
+        <v>0.1580572769866952</v>
       </c>
       <c r="T16">
-        <v>0.08590743845876535</v>
+        <v>0.1673426151892819</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H17">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I17">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J17">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.365419</v>
+        <v>1.135186</v>
       </c>
       <c r="N17">
-        <v>4.096257</v>
+        <v>3.405558</v>
       </c>
       <c r="O17">
-        <v>0.009198204086533742</v>
+        <v>0.006415563145489937</v>
       </c>
       <c r="P17">
-        <v>0.009372688028951477</v>
+        <v>0.00646579730555003</v>
       </c>
       <c r="Q17">
-        <v>88.01149587520949</v>
+        <v>94.026891057372</v>
       </c>
       <c r="R17">
-        <v>528.0689752512569</v>
+        <v>564.1613463442319</v>
       </c>
       <c r="S17">
-        <v>0.0005693892762467544</v>
+        <v>0.0009256004328015192</v>
       </c>
       <c r="T17">
-        <v>0.0003949427582209639</v>
+        <v>0.0006533175820744854</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H18">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I18">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J18">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>14.186264</v>
       </c>
       <c r="O18">
-        <v>0.03185546011821195</v>
+        <v>0.02672480471352731</v>
       </c>
       <c r="P18">
-        <v>0.03245973745503403</v>
+        <v>0.02693406118674866</v>
       </c>
       <c r="Q18">
-        <v>304.803706291044</v>
+        <v>391.680394120176</v>
       </c>
       <c r="R18">
-        <v>1828.822237746264</v>
+        <v>2350.082364721056</v>
       </c>
       <c r="S18">
-        <v>0.001971923781053139</v>
+        <v>0.003855700621817808</v>
       </c>
       <c r="T18">
-        <v>0.001367776053360609</v>
+        <v>0.00272147345461458</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H19">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I19">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J19">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.80666966666666</v>
+        <v>84.55360633333333</v>
       </c>
       <c r="N19">
-        <v>188.420009</v>
+        <v>253.660819</v>
       </c>
       <c r="O19">
-        <v>0.4230998437765317</v>
+        <v>0.4778591355164685</v>
       </c>
       <c r="P19">
-        <v>0.4311257723256207</v>
+        <v>0.4816007949398642</v>
       </c>
       <c r="Q19">
-        <v>4048.360941442501</v>
+        <v>7003.533104894045</v>
       </c>
       <c r="R19">
-        <v>24290.16564865501</v>
+        <v>42021.19862936427</v>
       </c>
       <c r="S19">
-        <v>0.02619082068212931</v>
+        <v>0.06894275882283837</v>
       </c>
       <c r="T19">
-        <v>0.01816661358368844</v>
+        <v>0.04866194407380926</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H20">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I20">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J20">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.290399499999999</v>
+        <v>4.124113</v>
       </c>
       <c r="N20">
-        <v>16.580799</v>
+        <v>8.248226000000001</v>
       </c>
       <c r="O20">
-        <v>0.05584863441910307</v>
+        <v>0.02330764066032874</v>
       </c>
       <c r="P20">
-        <v>0.03793869776670523</v>
+        <v>0.01566009371925767</v>
       </c>
       <c r="Q20">
-        <v>534.3784299164497</v>
+        <v>341.598225981726</v>
       </c>
       <c r="R20">
-        <v>2137.513719665799</v>
+        <v>1366.392903926904</v>
       </c>
       <c r="S20">
-        <v>0.003457154595843075</v>
+        <v>0.003362691909275107</v>
       </c>
       <c r="T20">
-        <v>0.001598646396104395</v>
+        <v>0.001582328378117156</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H21">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I21">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J21">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>71.25284333333333</v>
+        <v>82.400874</v>
       </c>
       <c r="N21">
-        <v>213.75853</v>
+        <v>247.202622</v>
       </c>
       <c r="O21">
-        <v>0.4799978575996197</v>
+        <v>0.4656928559641855</v>
       </c>
       <c r="P21">
-        <v>0.4891031044236887</v>
+        <v>0.4693392528485795</v>
       </c>
       <c r="Q21">
-        <v>4592.780184784754</v>
+        <v>6825.223357784747</v>
       </c>
       <c r="R21">
-        <v>27556.68110870853</v>
+        <v>40951.34014670848</v>
       </c>
       <c r="S21">
-        <v>0.02971293419535692</v>
+        <v>0.06718747820852569</v>
       </c>
       <c r="T21">
-        <v>0.02060964032077545</v>
+        <v>0.04742301240722167</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H22">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I22">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J22">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.365419</v>
+        <v>1.135186</v>
       </c>
       <c r="N22">
-        <v>4.096257</v>
+        <v>3.405558</v>
       </c>
       <c r="O22">
-        <v>0.009198204086533742</v>
+        <v>0.006415563145489937</v>
       </c>
       <c r="P22">
-        <v>0.009372688028951477</v>
+        <v>0.00646579730555003</v>
       </c>
       <c r="Q22">
-        <v>855.2613394985073</v>
+        <v>140.9990211131927</v>
       </c>
       <c r="R22">
-        <v>7697.352055486565</v>
+        <v>1268.991190018734</v>
       </c>
       <c r="S22">
-        <v>0.005533102582296334</v>
+        <v>0.00138799393981164</v>
       </c>
       <c r="T22">
-        <v>0.005756849188773535</v>
+        <v>0.001469533957455856</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H23">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I23">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J23">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>14.186264</v>
       </c>
       <c r="O23">
-        <v>0.03185546011821195</v>
+        <v>0.02672480471352731</v>
       </c>
       <c r="P23">
-        <v>0.03245973745503403</v>
+        <v>0.02693406118674866</v>
       </c>
       <c r="Q23">
-        <v>2961.963360970626</v>
+        <v>587.3484865779191</v>
       </c>
       <c r="R23">
-        <v>26657.67024873563</v>
+        <v>5286.136379201272</v>
       </c>
       <c r="S23">
-        <v>0.01916238506801149</v>
+        <v>0.005781856735538799</v>
       </c>
       <c r="T23">
-        <v>0.01993727014689929</v>
+        <v>0.006121521547257027</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H24">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I24">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J24">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>62.80666966666666</v>
+        <v>84.55360633333333</v>
       </c>
       <c r="N24">
-        <v>188.420009</v>
+        <v>253.660819</v>
       </c>
       <c r="O24">
-        <v>0.4230998437765317</v>
+        <v>0.4778591355164685</v>
       </c>
       <c r="P24">
-        <v>0.4311257723256207</v>
+        <v>0.4816007949398642</v>
       </c>
       <c r="Q24">
-        <v>39340.39033333621</v>
+        <v>10502.22230065403</v>
       </c>
       <c r="R24">
-        <v>354063.5130000259</v>
+        <v>94520.00070588628</v>
       </c>
       <c r="S24">
-        <v>0.2545121652167329</v>
+        <v>0.1033838447442849</v>
       </c>
       <c r="T24">
-        <v>0.2648040823513643</v>
+        <v>0.1094573010345335</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H25">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I25">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J25">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.290399499999999</v>
+        <v>4.124113</v>
       </c>
       <c r="N25">
-        <v>16.580799</v>
+        <v>8.248226000000001</v>
       </c>
       <c r="O25">
-        <v>0.05584863441910307</v>
+        <v>0.02330764066032874</v>
       </c>
       <c r="P25">
-        <v>0.03793869776670523</v>
+        <v>0.01566009371925767</v>
       </c>
       <c r="Q25">
-        <v>5192.880852945326</v>
+        <v>512.2472405052497</v>
       </c>
       <c r="R25">
-        <v>31157.28511767196</v>
+        <v>3073.483443031498</v>
       </c>
       <c r="S25">
-        <v>0.03359527799284925</v>
+        <v>0.005042560295051564</v>
       </c>
       <c r="T25">
-        <v>0.02330253186564394</v>
+        <v>0.003559195936692398</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H26">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I26">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J26">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>71.25284333333333</v>
+        <v>82.400874</v>
       </c>
       <c r="N26">
-        <v>213.75853</v>
+        <v>247.202622</v>
       </c>
       <c r="O26">
-        <v>0.4799978575996197</v>
+        <v>0.4656928559641855</v>
       </c>
       <c r="P26">
-        <v>0.4891031044236887</v>
+        <v>0.4693392528485795</v>
       </c>
       <c r="Q26">
-        <v>44630.84388919734</v>
+        <v>10234.83602940093</v>
       </c>
       <c r="R26">
-        <v>401677.5950027761</v>
+        <v>92113.52426460841</v>
       </c>
       <c r="S26">
-        <v>0.2887386885956785</v>
+        <v>0.1007516950941807</v>
       </c>
       <c r="T26">
-        <v>0.3004146517232497</v>
+        <v>0.1066705213656981</v>
       </c>
     </row>
   </sheetData>
